--- a/Code/Results/Cases/Case_0_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_228/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.607196754993432</v>
+        <v>4.926126621258732</v>
       </c>
       <c r="D2">
-        <v>3.362735541186466</v>
+        <v>3.338002904462885</v>
       </c>
       <c r="E2">
-        <v>31.62243353684081</v>
+        <v>16.66695836158539</v>
       </c>
       <c r="F2">
-        <v>39.85743707408924</v>
+        <v>27.18703899061369</v>
       </c>
       <c r="G2">
-        <v>1.958292765701827</v>
+        <v>3.567828460017615</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>32.29238138019209</v>
+        <v>23.19951237517529</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.049516854928461</v>
+        <v>4.750213261576305</v>
       </c>
       <c r="D3">
-        <v>3.139945308698333</v>
+        <v>3.332266480516493</v>
       </c>
       <c r="E3">
-        <v>29.16555642876387</v>
+        <v>15.70294774289624</v>
       </c>
       <c r="F3">
-        <v>36.89688011011589</v>
+        <v>26.3124813607043</v>
       </c>
       <c r="G3">
-        <v>1.97173335163116</v>
+        <v>3.572303459151253</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>29.87098972563075</v>
+        <v>22.57619591036837</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.691724455192374</v>
+        <v>4.640614124970813</v>
       </c>
       <c r="D4">
-        <v>3.000031024010031</v>
+        <v>3.329717909951302</v>
       </c>
       <c r="E4">
-        <v>27.60604818074528</v>
+        <v>15.08611945890486</v>
       </c>
       <c r="F4">
-        <v>35.00734135344984</v>
+        <v>25.77068349195066</v>
       </c>
       <c r="G4">
-        <v>1.980088634873442</v>
+        <v>3.575189172148977</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>28.32425087503865</v>
+        <v>22.19320626190153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.541937058256346</v>
+        <v>4.595631543631624</v>
       </c>
       <c r="D5">
-        <v>2.942153528115983</v>
+        <v>3.328923112997993</v>
       </c>
       <c r="E5">
-        <v>26.95678357589029</v>
+        <v>14.82875600235973</v>
       </c>
       <c r="F5">
-        <v>34.21874364326658</v>
+        <v>25.54907308206959</v>
       </c>
       <c r="G5">
-        <v>1.983525356286841</v>
+        <v>3.576399996207454</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>27.67833068099538</v>
+        <v>22.03732681160587</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.516821111478584</v>
+        <v>4.58814532945987</v>
       </c>
       <c r="D6">
-        <v>2.932489062503882</v>
+        <v>3.328805825205932</v>
       </c>
       <c r="E6">
-        <v>26.84811800433367</v>
+        <v>14.78566738895239</v>
       </c>
       <c r="F6">
-        <v>34.08666054128898</v>
+        <v>25.51223691030438</v>
       </c>
       <c r="G6">
-        <v>1.984098109621376</v>
+        <v>3.576603163521045</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>27.5701194853119</v>
+        <v>22.01146251924026</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.689720649203855</v>
+        <v>4.640008660651212</v>
       </c>
       <c r="D7">
-        <v>2.999254044709682</v>
+        <v>3.329706205594031</v>
       </c>
       <c r="E7">
-        <v>27.59734880258202</v>
+        <v>15.08267247213796</v>
       </c>
       <c r="F7">
-        <v>34.99678198800395</v>
+        <v>25.76769758027975</v>
       </c>
       <c r="G7">
-        <v>1.9801348471684</v>
+        <v>3.575205360334442</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766462</v>
       </c>
       <c r="O7">
-        <v>28.31560361313826</v>
+        <v>22.19110288947427</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.418024854835689</v>
+        <v>4.865846705030525</v>
       </c>
       <c r="D8">
-        <v>3.286513536128154</v>
+        <v>3.33582233936324</v>
       </c>
       <c r="E8">
-        <v>30.78527984737998</v>
+        <v>16.33988363937716</v>
       </c>
       <c r="F8">
-        <v>38.8511557186744</v>
+        <v>26.88671595412645</v>
       </c>
       <c r="G8">
-        <v>1.962909647645895</v>
+        <v>3.569342884976606</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
-        <v>31.46959332508999</v>
+        <v>22.98480201195844</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.730298861514598</v>
+        <v>5.292972261085342</v>
       </c>
       <c r="D9">
-        <v>3.829546319298191</v>
+        <v>3.355579124847327</v>
       </c>
       <c r="E9">
-        <v>36.68239083111663</v>
+        <v>18.74361448004077</v>
       </c>
       <c r="F9">
-        <v>45.87230315275774</v>
+        <v>29.02717102200151</v>
       </c>
       <c r="G9">
-        <v>1.929625759917137</v>
+        <v>3.55893461158872</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>37.20741291800358</v>
+        <v>24.52821902330702</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.633680417016091</v>
+        <v>5.593444883520045</v>
       </c>
       <c r="D10">
-        <v>4.224311827774714</v>
+        <v>3.374865229620801</v>
       </c>
       <c r="E10">
-        <v>40.88533405904284</v>
+        <v>20.43372571100995</v>
       </c>
       <c r="F10">
-        <v>50.76013361964841</v>
+        <v>30.54778217139864</v>
       </c>
       <c r="G10">
-        <v>1.90493139323202</v>
+        <v>3.551940698096631</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>41.20028594588403</v>
+        <v>25.64059188266682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.03423870648035</v>
+        <v>5.72658274896879</v>
       </c>
       <c r="D11">
-        <v>4.405537456283356</v>
+        <v>3.384678399948793</v>
       </c>
       <c r="E11">
-        <v>42.7951920091981</v>
+        <v>21.16060891215216</v>
       </c>
       <c r="F11">
-        <v>52.9420887930239</v>
+        <v>31.22479402351992</v>
       </c>
       <c r="G11">
-        <v>1.893486820889108</v>
+        <v>3.54889858406329</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>42.98308054501091</v>
+        <v>26.13936855543931</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.18471733585885</v>
+        <v>5.776441726129652</v>
       </c>
       <c r="D12">
-        <v>4.474688375272006</v>
+        <v>3.388543798539379</v>
       </c>
       <c r="E12">
-        <v>43.52102163603271</v>
+        <v>21.42987029500256</v>
       </c>
       <c r="F12">
-        <v>53.7642402630844</v>
+        <v>31.47879319919046</v>
       </c>
       <c r="G12">
-        <v>1.889105492216311</v>
+        <v>3.547766495598579</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>43.65494712297654</v>
+        <v>26.32700660914469</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.15235728566888</v>
+        <v>5.765729185756575</v>
       </c>
       <c r="D13">
-        <v>4.459766678201897</v>
+        <v>3.387704677737943</v>
       </c>
       <c r="E13">
-        <v>43.36453006724027</v>
+        <v>21.37214596823456</v>
       </c>
       <c r="F13">
-        <v>53.58732306180901</v>
+        <v>31.42419911024609</v>
       </c>
       <c r="G13">
-        <v>1.89005152362883</v>
+        <v>3.548009428843297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>43.51036305489874</v>
+        <v>26.28665339029789</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.04664090760766</v>
+        <v>5.730696098716328</v>
       </c>
       <c r="D14">
-        <v>4.411214086743046</v>
+        <v>3.384993416870911</v>
       </c>
       <c r="E14">
-        <v>42.85483461058399</v>
+        <v>21.18288109909063</v>
       </c>
       <c r="F14">
-        <v>53.00979762996297</v>
+        <v>31.2457395530387</v>
       </c>
       <c r="G14">
-        <v>1.893127432517438</v>
+        <v>3.548805048668281</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>43.03840979985015</v>
+        <v>26.15483152136503</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.981739493657464</v>
+        <v>5.709163424527925</v>
       </c>
       <c r="D15">
-        <v>4.381552480736462</v>
+        <v>3.383352134246597</v>
       </c>
       <c r="E15">
-        <v>42.54307111291941</v>
+        <v>21.06617155094796</v>
       </c>
       <c r="F15">
-        <v>52.65557508417984</v>
+        <v>31.13611214935311</v>
       </c>
       <c r="G15">
-        <v>1.895004744479718</v>
+        <v>3.54929497485921</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>42.74895688946041</v>
+        <v>26.07392009104949</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.607317257250827</v>
+        <v>5.584668440015143</v>
       </c>
       <c r="D16">
-        <v>4.212524288427351</v>
+        <v>3.374244831144299</v>
       </c>
       <c r="E16">
-        <v>40.76070945417886</v>
+        <v>20.38538131221762</v>
       </c>
       <c r="F16">
-        <v>50.6168510661557</v>
+        <v>30.50321931614264</v>
       </c>
       <c r="G16">
-        <v>1.905673702182668</v>
+        <v>3.552142299956858</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>41.08322770608326</v>
+        <v>25.60783271292764</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.375146936129411</v>
+        <v>5.507350503590494</v>
       </c>
       <c r="D17">
-        <v>4.109433897317972</v>
+        <v>3.368924076746687</v>
       </c>
       <c r="E17">
-        <v>39.66859013412797</v>
+        <v>19.95702076391906</v>
       </c>
       <c r="F17">
-        <v>49.35671059608281</v>
+        <v>30.11100033487716</v>
       </c>
       <c r="G17">
-        <v>1.912153747652208</v>
+        <v>3.553924645731941</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>40.05377207216931</v>
+        <v>25.31990249809792</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.240609778069619</v>
+        <v>5.462547692818903</v>
       </c>
       <c r="D18">
-        <v>4.050272724799634</v>
+        <v>3.36596161706636</v>
       </c>
       <c r="E18">
-        <v>39.04002385820212</v>
+        <v>19.70668754964532</v>
       </c>
       <c r="F18">
-        <v>48.62786622554459</v>
+        <v>29.88403404494041</v>
       </c>
       <c r="G18">
-        <v>1.915862274713517</v>
+        <v>3.554962939315403</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>39.45838109790942</v>
+        <v>25.15362115366423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.194878371208677</v>
+        <v>5.447322814145106</v>
       </c>
       <c r="D19">
-        <v>4.030257169072227</v>
+        <v>3.364975394290782</v>
       </c>
       <c r="E19">
-        <v>38.82705561681244</v>
+        <v>19.6212491263944</v>
       </c>
       <c r="F19">
-        <v>48.38034760006193</v>
+        <v>29.80695963907844</v>
       </c>
       <c r="G19">
-        <v>1.917115178096857</v>
+        <v>3.55531674854207</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>39.25618692918737</v>
+        <v>25.09721205081313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.399963341082001</v>
+        <v>5.51561580698003</v>
       </c>
       <c r="D20">
-        <v>4.120392366087025</v>
+        <v>3.36948034857057</v>
       </c>
       <c r="E20">
-        <v>39.78487173226436</v>
+        <v>20.0030291576616</v>
       </c>
       <c r="F20">
-        <v>49.49126124394914</v>
+        <v>30.1528966668276</v>
       </c>
       <c r="G20">
-        <v>1.911465974627375</v>
+        <v>3.553733553664874</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
-        <v>40.16368804537991</v>
+        <v>25.35062412894835</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.07772240750544</v>
+        <v>5.741001641805984</v>
       </c>
       <c r="D21">
-        <v>4.425458217347093</v>
+        <v>3.385785728614525</v>
       </c>
       <c r="E21">
-        <v>43.0044465017341</v>
+        <v>21.23863512412181</v>
       </c>
       <c r="F21">
-        <v>53.1795250950291</v>
+        <v>31.29822367207161</v>
       </c>
       <c r="G21">
-        <v>1.892225411587198</v>
+        <v>3.548570817188154</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>43.17710716497006</v>
+        <v>26.19358587191</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.51384526539552</v>
+        <v>5.885037196549976</v>
       </c>
       <c r="D22">
-        <v>4.628093215750735</v>
+        <v>3.397312611908086</v>
       </c>
       <c r="E22">
-        <v>45.1258292527612</v>
+        <v>22.01125871943847</v>
       </c>
       <c r="F22">
-        <v>55.56731686474284</v>
+        <v>32.03284516023606</v>
       </c>
       <c r="G22">
-        <v>1.8793622175977</v>
+        <v>3.54531255446293</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>45.12872379132614</v>
+        <v>26.73721587234358</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.28158916261462</v>
+        <v>5.808475767081984</v>
       </c>
       <c r="D23">
-        <v>4.519527117774621</v>
+        <v>3.391080969226284</v>
       </c>
       <c r="E23">
-        <v>43.99084269374593</v>
+        <v>21.6020766720854</v>
       </c>
       <c r="F23">
-        <v>54.2942360839168</v>
+        <v>31.64211395879047</v>
       </c>
       <c r="G23">
-        <v>1.886260817272178</v>
+        <v>3.547040999811102</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>44.08810414346219</v>
+        <v>26.44779810753272</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.388747165075619</v>
+        <v>5.511880155143001</v>
       </c>
       <c r="D24">
-        <v>4.115437730104912</v>
+        <v>3.369228557453476</v>
       </c>
       <c r="E24">
-        <v>39.73230318609085</v>
+        <v>19.98224142129517</v>
       </c>
       <c r="F24">
-        <v>49.43044465078042</v>
+        <v>30.13395990796412</v>
       </c>
       <c r="G24">
-        <v>1.911776968331439</v>
+        <v>3.553819904017697</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>40.11400618476457</v>
+        <v>25.33673718956975</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.386775026256306</v>
+        <v>5.179520665868902</v>
       </c>
       <c r="D25">
-        <v>3.684087671026459</v>
+        <v>3.349398448047916</v>
       </c>
       <c r="E25">
-        <v>35.11715382817535</v>
+        <v>18.08374502840279</v>
       </c>
       <c r="F25">
-        <v>44.02527715984863</v>
+        <v>28.45597794450956</v>
       </c>
       <c r="G25">
-        <v>1.93862685930312</v>
+        <v>3.561634903240105</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>35.69849286049839</v>
+        <v>24.11354218685652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_228/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.926126621258732</v>
+        <v>7.607196754993432</v>
       </c>
       <c r="D2">
-        <v>3.338002904462885</v>
+        <v>3.362735541186318</v>
       </c>
       <c r="E2">
-        <v>16.66695836158539</v>
+        <v>31.62243353684072</v>
       </c>
       <c r="F2">
-        <v>27.18703899061369</v>
+        <v>39.85743707408917</v>
       </c>
       <c r="G2">
-        <v>3.567828460017615</v>
+        <v>1.958292765701821</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>23.19951237517529</v>
+        <v>32.29238138019198</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750213261576305</v>
+        <v>7.049516854928399</v>
       </c>
       <c r="D3">
-        <v>3.332266480516493</v>
+        <v>3.139945308698493</v>
       </c>
       <c r="E3">
-        <v>15.70294774289624</v>
+        <v>29.1655564287639</v>
       </c>
       <c r="F3">
-        <v>26.3124813607043</v>
+        <v>36.896880110116</v>
       </c>
       <c r="G3">
-        <v>3.572303459151253</v>
+        <v>1.971733351631427</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>22.57619591036837</v>
+        <v>29.87098972563089</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.640614124970813</v>
+        <v>6.691724455192325</v>
       </c>
       <c r="D4">
-        <v>3.329717909951302</v>
+        <v>3.000031024010098</v>
       </c>
       <c r="E4">
-        <v>15.08611945890486</v>
+        <v>27.6060481807453</v>
       </c>
       <c r="F4">
-        <v>25.77068349195066</v>
+        <v>35.00734135344992</v>
       </c>
       <c r="G4">
-        <v>3.575189172148977</v>
+        <v>1.980088634873443</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>22.19320626190153</v>
+        <v>28.32425087503873</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.595631543631624</v>
+        <v>6.541937058256443</v>
       </c>
       <c r="D5">
-        <v>3.328923112997993</v>
+        <v>2.942153528116043</v>
       </c>
       <c r="E5">
-        <v>14.82875600235973</v>
+        <v>26.95678357589032</v>
       </c>
       <c r="F5">
-        <v>25.54907308206959</v>
+        <v>34.21874364326658</v>
       </c>
       <c r="G5">
-        <v>3.576399996207454</v>
+        <v>1.983525356286708</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>22.03732681160587</v>
+        <v>27.67833068099538</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.58814532945987</v>
+        <v>6.516821111478681</v>
       </c>
       <c r="D6">
-        <v>3.328805825205932</v>
+        <v>2.932489062503846</v>
       </c>
       <c r="E6">
-        <v>14.78566738895239</v>
+        <v>26.8481180043336</v>
       </c>
       <c r="F6">
-        <v>25.51223691030438</v>
+        <v>34.08666054128886</v>
       </c>
       <c r="G6">
-        <v>3.576603163521045</v>
+        <v>1.984098109621642</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>22.01146251924026</v>
+        <v>27.5701194853118</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.640008660651212</v>
+        <v>6.689720649203858</v>
       </c>
       <c r="D7">
-        <v>3.329706205594031</v>
+        <v>2.999254044709588</v>
       </c>
       <c r="E7">
-        <v>15.08267247213796</v>
+        <v>27.59734880258212</v>
       </c>
       <c r="F7">
-        <v>25.76769758027975</v>
+        <v>34.99678198800395</v>
       </c>
       <c r="G7">
-        <v>3.575205360334442</v>
+        <v>1.980134847168663</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766462</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>22.19110288947427</v>
+        <v>28.31560361313824</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.865846705030525</v>
+        <v>7.418024854835689</v>
       </c>
       <c r="D8">
-        <v>3.33582233936324</v>
+        <v>3.286513536128208</v>
       </c>
       <c r="E8">
-        <v>16.33988363937716</v>
+        <v>30.78527984737994</v>
       </c>
       <c r="F8">
-        <v>26.88671595412645</v>
+        <v>38.85115571867456</v>
       </c>
       <c r="G8">
-        <v>3.569342884976606</v>
+        <v>1.962909647646024</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>22.98480201195844</v>
+        <v>31.46959332509014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.292972261085342</v>
+        <v>8.730298861514601</v>
       </c>
       <c r="D9">
-        <v>3.355579124847327</v>
+        <v>3.829546319298114</v>
       </c>
       <c r="E9">
-        <v>18.74361448004077</v>
+        <v>36.68239083111677</v>
       </c>
       <c r="F9">
-        <v>29.02717102200151</v>
+        <v>45.87230315275793</v>
       </c>
       <c r="G9">
-        <v>3.55893461158872</v>
+        <v>1.929625759917009</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
-        <v>24.52821902330702</v>
+        <v>37.20741291800373</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.593444883520045</v>
+        <v>9.633680417016018</v>
       </c>
       <c r="D10">
-        <v>3.374865229620801</v>
+        <v>4.224311827774629</v>
       </c>
       <c r="E10">
-        <v>20.43372571100995</v>
+        <v>40.88533405904285</v>
       </c>
       <c r="F10">
-        <v>30.54778217139864</v>
+        <v>50.76013361964835</v>
       </c>
       <c r="G10">
-        <v>3.551940698096631</v>
+        <v>1.904931393232274</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>25.64059188266682</v>
+        <v>41.20028594588396</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.72658274896879</v>
+        <v>10.03423870648035</v>
       </c>
       <c r="D11">
-        <v>3.384678399948793</v>
+        <v>4.405537456283396</v>
       </c>
       <c r="E11">
-        <v>21.16060891215216</v>
+        <v>42.79519200919818</v>
       </c>
       <c r="F11">
-        <v>31.22479402351992</v>
+        <v>52.94208879302404</v>
       </c>
       <c r="G11">
-        <v>3.54889858406329</v>
+        <v>1.893486820889235</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
-        <v>26.13936855543931</v>
+        <v>42.98308054501101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.776441726129652</v>
+        <v>10.18471733585891</v>
       </c>
       <c r="D12">
-        <v>3.388543798539379</v>
+        <v>4.474688375271904</v>
       </c>
       <c r="E12">
-        <v>21.42987029500256</v>
+        <v>43.52102163603271</v>
       </c>
       <c r="F12">
-        <v>31.47879319919046</v>
+        <v>53.7642402630844</v>
       </c>
       <c r="G12">
-        <v>3.547766495598579</v>
+        <v>1.889105492216176</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>26.32700660914469</v>
+        <v>43.65494712297652</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.765729185756575</v>
+        <v>10.15235728566886</v>
       </c>
       <c r="D13">
-        <v>3.387704677737943</v>
+        <v>4.459766678201856</v>
       </c>
       <c r="E13">
-        <v>21.37214596823456</v>
+        <v>43.36453006724031</v>
       </c>
       <c r="F13">
-        <v>31.42419911024609</v>
+        <v>53.58732306180892</v>
       </c>
       <c r="G13">
-        <v>3.548009428843297</v>
+        <v>1.890051523628951</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>26.28665339029789</v>
+        <v>43.51036305489867</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.730696098716328</v>
+        <v>10.04664090760769</v>
       </c>
       <c r="D14">
-        <v>3.384993416870911</v>
+        <v>4.411214086742995</v>
       </c>
       <c r="E14">
-        <v>21.18288109909063</v>
+        <v>42.85483461058394</v>
       </c>
       <c r="F14">
-        <v>31.2457395530387</v>
+        <v>53.00979762996296</v>
       </c>
       <c r="G14">
-        <v>3.548805048668281</v>
+        <v>1.893127432517305</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>26.15483152136503</v>
+        <v>43.0384097998501</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.709163424527925</v>
+        <v>9.981739493657464</v>
       </c>
       <c r="D15">
-        <v>3.383352134246597</v>
+        <v>4.381552480736353</v>
       </c>
       <c r="E15">
-        <v>21.06617155094796</v>
+        <v>42.54307111291943</v>
       </c>
       <c r="F15">
-        <v>31.13611214935311</v>
+        <v>52.65557508417987</v>
       </c>
       <c r="G15">
-        <v>3.54929497485921</v>
+        <v>1.895004744479589</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>26.07392009104949</v>
+        <v>42.74895688946038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.584668440015143</v>
+        <v>9.60731725725077</v>
       </c>
       <c r="D16">
-        <v>3.374244831144299</v>
+        <v>4.2125242884273</v>
       </c>
       <c r="E16">
-        <v>20.38538131221762</v>
+        <v>40.76070945417886</v>
       </c>
       <c r="F16">
-        <v>30.50321931614264</v>
+        <v>50.61685106615558</v>
       </c>
       <c r="G16">
-        <v>3.552142299956858</v>
+        <v>1.90567370218267</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>25.60783271292764</v>
+        <v>41.08322770608315</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.507350503590494</v>
+        <v>9.375146936129257</v>
       </c>
       <c r="D17">
-        <v>3.368924076746687</v>
+        <v>4.109433897317849</v>
       </c>
       <c r="E17">
-        <v>19.95702076391906</v>
+        <v>39.66859013412795</v>
       </c>
       <c r="F17">
-        <v>30.11100033487716</v>
+        <v>49.35671059608273</v>
       </c>
       <c r="G17">
-        <v>3.553924645731941</v>
+        <v>1.912153747652211</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>25.31990249809792</v>
+        <v>40.05377207216922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.462547692818903</v>
+        <v>9.24060977806962</v>
       </c>
       <c r="D18">
-        <v>3.36596161706636</v>
+        <v>4.050272724799633</v>
       </c>
       <c r="E18">
-        <v>19.70668754964532</v>
+        <v>39.0400238582021</v>
       </c>
       <c r="F18">
-        <v>29.88403404494041</v>
+        <v>48.62786622554463</v>
       </c>
       <c r="G18">
-        <v>3.554962939315403</v>
+        <v>1.915862274713782</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>25.15362115366423</v>
+        <v>39.45838109790945</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.447322814145106</v>
+        <v>9.194878371208622</v>
       </c>
       <c r="D19">
-        <v>3.364975394290782</v>
+        <v>4.030257169072216</v>
       </c>
       <c r="E19">
-        <v>19.6212491263944</v>
+        <v>38.82705561681233</v>
       </c>
       <c r="F19">
-        <v>29.80695963907844</v>
+        <v>48.3803476000618</v>
       </c>
       <c r="G19">
-        <v>3.55531674854207</v>
+        <v>1.917115178096991</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
-        <v>25.09721205081313</v>
+        <v>39.25618692918725</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.51561580698003</v>
+        <v>9.399963341082072</v>
       </c>
       <c r="D20">
-        <v>3.36948034857057</v>
+        <v>4.120392366087038</v>
       </c>
       <c r="E20">
-        <v>20.0030291576616</v>
+        <v>39.78487173226428</v>
       </c>
       <c r="F20">
-        <v>30.1528966668276</v>
+        <v>49.4912612439492</v>
       </c>
       <c r="G20">
-        <v>3.553733553664874</v>
+        <v>1.911465974627505</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>25.35062412894835</v>
+        <v>40.16368804537994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.741001641805984</v>
+        <v>10.07772240750566</v>
       </c>
       <c r="D21">
-        <v>3.385785728614525</v>
+        <v>4.425458217347102</v>
       </c>
       <c r="E21">
-        <v>21.23863512412181</v>
+        <v>43.00444650173417</v>
       </c>
       <c r="F21">
-        <v>31.29822367207161</v>
+        <v>53.1795250950294</v>
       </c>
       <c r="G21">
-        <v>3.548570817188154</v>
+        <v>1.892225411587074</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>26.19358587191</v>
+        <v>43.17710716497026</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.885037196549976</v>
+        <v>10.51384526539543</v>
       </c>
       <c r="D22">
-        <v>3.397312611908086</v>
+        <v>4.628093215750672</v>
       </c>
       <c r="E22">
-        <v>22.01125871943847</v>
+        <v>45.12582925276132</v>
       </c>
       <c r="F22">
-        <v>32.03284516023606</v>
+        <v>55.56731686474302</v>
       </c>
       <c r="G22">
-        <v>3.54531255446293</v>
+        <v>1.879362217597444</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>26.73721587234358</v>
+        <v>45.1287237913263</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.808475767081984</v>
+        <v>10.28158916261461</v>
       </c>
       <c r="D23">
-        <v>3.391080969226284</v>
+        <v>4.51952711777454</v>
       </c>
       <c r="E23">
-        <v>21.6020766720854</v>
+        <v>43.99084269374585</v>
       </c>
       <c r="F23">
-        <v>31.64211395879047</v>
+        <v>54.29423608391672</v>
       </c>
       <c r="G23">
-        <v>3.547040999811102</v>
+        <v>1.886260817272308</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>26.44779810753272</v>
+        <v>44.08810414346211</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.511880155143001</v>
+        <v>9.388747165075561</v>
       </c>
       <c r="D24">
-        <v>3.369228557453476</v>
+        <v>4.1154377301049</v>
       </c>
       <c r="E24">
-        <v>19.98224142129517</v>
+        <v>39.73230318609075</v>
       </c>
       <c r="F24">
-        <v>30.13395990796412</v>
+        <v>49.43044465078035</v>
       </c>
       <c r="G24">
-        <v>3.553819904017697</v>
+        <v>1.911776968331567</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911917</v>
       </c>
       <c r="O24">
-        <v>25.33673718956975</v>
+        <v>40.11400618476453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.179520665868902</v>
+        <v>8.386775026256238</v>
       </c>
       <c r="D25">
-        <v>3.349398448047916</v>
+        <v>3.68408767102642</v>
       </c>
       <c r="E25">
-        <v>18.08374502840279</v>
+        <v>35.11715382817538</v>
       </c>
       <c r="F25">
-        <v>28.45597794450956</v>
+        <v>44.02527715984868</v>
       </c>
       <c r="G25">
-        <v>3.561634903240105</v>
+        <v>1.938626859303115</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088411</v>
       </c>
       <c r="O25">
-        <v>24.11354218685652</v>
+        <v>35.69849286049843</v>
       </c>
     </row>
   </sheetData>
